--- a/Folder/Templates/reportGetting.xlsx
+++ b/Folder/Templates/reportGetting.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\79603\source\repos\WinFormsApp1\WinFormsApp1\bin\Debug\net8.0-windows\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\79603\source\repos\WinFormsApp1\Folder\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38103B76-59C4-4F05-9358-D8953CA8EBCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97145A30-5344-4D50-A74A-6ECD5D64F48A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="51">
   <si>
     <t>Наряд №</t>
   </si>
@@ -143,15 +143,6 @@
     <t>{{Id}}</t>
   </si>
   <si>
-    <t>{{ClientName}}</t>
-  </si>
-  <si>
-    <t>{{ClientAddress}}</t>
-  </si>
-  <si>
-    <t>{{ClientWorkPhone}}</t>
-  </si>
-  <si>
     <t>{{FactoryNumber}}</t>
   </si>
   <si>
@@ -191,7 +182,10 @@
     <t>{{ClientSecondPhone}}</t>
   </si>
   <si>
-    <t>{{ClientId}}</t>
+    <t>{{ClientNameAndAddress}}</t>
+  </si>
+  <si>
+    <t>{{IdClient}}</t>
   </si>
 </sst>
 </file>
@@ -768,6 +762,267 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -778,20 +1033,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -843,24 +1084,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -869,241 +1098,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1694,7 +1688,7 @@
   <dimension ref="A1:HE32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:I6"/>
+      <selection activeCell="V4" sqref="V4:Y4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1732,996 +1726,994 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="114" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
-      <c r="L1" s="115"/>
-      <c r="M1" s="115"/>
-      <c r="N1" s="116"/>
-      <c r="O1" s="69" t="s">
+      <c r="A1" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="P1" s="120"/>
-      <c r="Q1" s="70"/>
-      <c r="S1" s="75" t="s">
-        <v>46</v>
-      </c>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
-      <c r="W1" s="76"/>
-      <c r="X1" s="76"/>
-      <c r="Y1" s="76"/>
-      <c r="Z1" s="76"/>
-      <c r="AA1" s="76"/>
-      <c r="AB1" s="77"/>
-      <c r="AC1" s="69" t="s">
+      <c r="P1" s="61"/>
+      <c r="Q1" s="62"/>
+      <c r="S1" s="108" t="s">
+        <v>43</v>
+      </c>
+      <c r="T1" s="109"/>
+      <c r="U1" s="109"/>
+      <c r="V1" s="109"/>
+      <c r="W1" s="109"/>
+      <c r="X1" s="109"/>
+      <c r="Y1" s="109"/>
+      <c r="Z1" s="109"/>
+      <c r="AA1" s="109"/>
+      <c r="AB1" s="110"/>
+      <c r="AC1" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="AD1" s="70"/>
+      <c r="AD1" s="62"/>
     </row>
     <row r="2" spans="1:30" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="117"/>
-      <c r="B2" s="118"/>
-      <c r="C2" s="118"/>
-      <c r="D2" s="118"/>
-      <c r="E2" s="118"/>
-      <c r="F2" s="118"/>
-      <c r="G2" s="118"/>
-      <c r="H2" s="118"/>
-      <c r="I2" s="118"/>
-      <c r="J2" s="118"/>
-      <c r="K2" s="118"/>
-      <c r="L2" s="118"/>
-      <c r="M2" s="118"/>
-      <c r="N2" s="119"/>
-      <c r="O2" s="71" t="s">
+      <c r="A2" s="57"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="P2" s="71"/>
-      <c r="Q2" s="71"/>
-      <c r="S2" s="78" t="s">
-        <v>47</v>
-      </c>
-      <c r="T2" s="79"/>
-      <c r="U2" s="79"/>
-      <c r="V2" s="79"/>
-      <c r="W2" s="79"/>
-      <c r="X2" s="79"/>
-      <c r="Y2" s="79"/>
-      <c r="Z2" s="79"/>
-      <c r="AA2" s="79"/>
-      <c r="AB2" s="80"/>
-      <c r="AC2" s="71" t="s">
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63"/>
+      <c r="S2" s="111" t="s">
+        <v>44</v>
+      </c>
+      <c r="T2" s="112"/>
+      <c r="U2" s="112"/>
+      <c r="V2" s="112"/>
+      <c r="W2" s="112"/>
+      <c r="X2" s="112"/>
+      <c r="Y2" s="112"/>
+      <c r="Z2" s="112"/>
+      <c r="AA2" s="112"/>
+      <c r="AB2" s="113"/>
+      <c r="AC2" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="AD2" s="71"/>
+      <c r="AD2" s="63"/>
     </row>
     <row r="3" spans="1:30" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="89" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" s="90"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="90"/>
-      <c r="J3" s="90"/>
-      <c r="K3" s="90"/>
-      <c r="L3" s="90"/>
-      <c r="M3" s="90"/>
-      <c r="N3" s="90"/>
+      <c r="A3" s="103" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="104"/>
+      <c r="C3" s="104"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="104"/>
+      <c r="L3" s="104"/>
+      <c r="M3" s="104"/>
+      <c r="N3" s="104"/>
       <c r="O3" s="24"/>
       <c r="P3" s="24"/>
       <c r="Q3" s="25"/>
-      <c r="S3" s="81" t="s">
-        <v>48</v>
-      </c>
-      <c r="T3" s="82"/>
-      <c r="U3" s="82"/>
-      <c r="V3" s="82"/>
+      <c r="S3" s="114" t="s">
+        <v>45</v>
+      </c>
+      <c r="T3" s="115"/>
+      <c r="U3" s="115"/>
+      <c r="V3" s="115"/>
       <c r="W3" s="28"/>
-      <c r="X3" s="82" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y3" s="82"/>
-      <c r="Z3" s="83" t="s">
+      <c r="X3" s="115" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y3" s="115"/>
+      <c r="Z3" s="116" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA3" s="116"/>
+      <c r="AB3" s="116"/>
+      <c r="AC3" s="116"/>
+      <c r="AD3" s="117"/>
+    </row>
+    <row r="4" spans="1:30" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="69" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="71" t="s">
+        <v>47</v>
+      </c>
+      <c r="J4" s="71"/>
+      <c r="K4" s="71"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="71"/>
+      <c r="N4" s="71"/>
+      <c r="O4" s="71"/>
+      <c r="P4" s="71"/>
+      <c r="Q4" s="72"/>
+      <c r="S4" s="121" t="s">
+        <v>1</v>
+      </c>
+      <c r="T4" s="122"/>
+      <c r="U4" s="123"/>
+      <c r="V4" s="118" t="s">
         <v>50</v>
       </c>
-      <c r="AA3" s="83"/>
-      <c r="AB3" s="83"/>
-      <c r="AC3" s="83"/>
-      <c r="AD3" s="84"/>
-    </row>
-    <row r="4" spans="1:30" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="121" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="122"/>
-      <c r="C4" s="122"/>
-      <c r="D4" s="122"/>
-      <c r="E4" s="122" t="s">
-        <v>49</v>
-      </c>
-      <c r="F4" s="122"/>
-      <c r="G4" s="122"/>
-      <c r="H4" s="122"/>
-      <c r="I4" s="123" t="s">
-        <v>50</v>
-      </c>
-      <c r="J4" s="123"/>
-      <c r="K4" s="123"/>
-      <c r="L4" s="123"/>
-      <c r="M4" s="123"/>
-      <c r="N4" s="123"/>
-      <c r="O4" s="123"/>
-      <c r="P4" s="123"/>
-      <c r="Q4" s="124"/>
-      <c r="S4" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="T4" s="88"/>
-      <c r="U4" s="34"/>
-      <c r="V4" s="85" t="s">
-        <v>36</v>
-      </c>
-      <c r="W4" s="86"/>
-      <c r="X4" s="86"/>
-      <c r="Y4" s="87"/>
+      <c r="W4" s="119"/>
+      <c r="X4" s="119"/>
+      <c r="Y4" s="120"/>
       <c r="Z4" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="AA4" s="72" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB4" s="73"/>
-      <c r="AC4" s="73"/>
-      <c r="AD4" s="74"/>
+      <c r="AA4" s="105" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB4" s="106"/>
+      <c r="AC4" s="106"/>
+      <c r="AD4" s="107"/>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="121" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="94" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="95"/>
-      <c r="E5" s="95"/>
-      <c r="F5" s="95"/>
-      <c r="G5" s="95"/>
-      <c r="H5" s="95"/>
-      <c r="I5" s="96"/>
+      <c r="B5" s="123"/>
+      <c r="C5" s="64" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="66"/>
       <c r="J5" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="K5" s="94" t="s">
-        <v>37</v>
-      </c>
-      <c r="L5" s="95"/>
-      <c r="M5" s="95"/>
-      <c r="N5" s="95"/>
-      <c r="O5" s="95"/>
-      <c r="P5" s="95"/>
-      <c r="Q5" s="96"/>
-      <c r="S5" s="63" t="s">
+      <c r="K5" s="64" t="s">
+        <v>49</v>
+      </c>
+      <c r="L5" s="65"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="65"/>
+      <c r="Q5" s="66"/>
+      <c r="S5" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="T5" s="64"/>
-      <c r="U5" s="64"/>
-      <c r="V5" s="64"/>
-      <c r="W5" s="65"/>
-      <c r="X5" s="58" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y5" s="59"/>
-      <c r="Z5" s="60"/>
+      <c r="T5" s="48"/>
+      <c r="U5" s="48"/>
+      <c r="V5" s="48"/>
+      <c r="W5" s="49"/>
+      <c r="X5" s="97" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y5" s="98"/>
+      <c r="Z5" s="145"/>
       <c r="AA5" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="AB5" s="61" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC5" s="59"/>
-      <c r="AD5" s="62"/>
+      <c r="AB5" s="146" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC5" s="98"/>
+      <c r="AD5" s="99"/>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="37"/>
+      <c r="B6" s="101"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="68"/>
       <c r="J6" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="K6" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="L6" s="36"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="37"/>
-      <c r="S6" s="50" t="s">
+      <c r="K6" s="96" t="s">
+        <v>48</v>
+      </c>
+      <c r="L6" s="67"/>
+      <c r="M6" s="67"/>
+      <c r="N6" s="67"/>
+      <c r="O6" s="67"/>
+      <c r="P6" s="67"/>
+      <c r="Q6" s="68"/>
+      <c r="S6" s="137" t="s">
         <v>34</v>
       </c>
-      <c r="T6" s="51"/>
-      <c r="U6" s="51"/>
-      <c r="V6" s="52"/>
-      <c r="W6" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="X6" s="45"/>
-      <c r="Y6" s="45"/>
-      <c r="Z6" s="45"/>
-      <c r="AA6" s="45"/>
-      <c r="AB6" s="45"/>
-      <c r="AC6" s="45"/>
-      <c r="AD6" s="46"/>
+      <c r="T6" s="138"/>
+      <c r="U6" s="138"/>
+      <c r="V6" s="139"/>
+      <c r="W6" s="131" t="s">
+        <v>38</v>
+      </c>
+      <c r="X6" s="132"/>
+      <c r="Y6" s="132"/>
+      <c r="Z6" s="132"/>
+      <c r="AA6" s="132"/>
+      <c r="AB6" s="132"/>
+      <c r="AC6" s="132"/>
+      <c r="AD6" s="133"/>
     </row>
     <row r="7" spans="1:30" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="Q7" s="3"/>
-      <c r="S7" s="53"/>
-      <c r="T7" s="54"/>
-      <c r="U7" s="54"/>
-      <c r="V7" s="55"/>
-      <c r="W7" s="47"/>
-      <c r="X7" s="48"/>
-      <c r="Y7" s="48"/>
-      <c r="Z7" s="48"/>
-      <c r="AA7" s="48"/>
-      <c r="AB7" s="48"/>
-      <c r="AC7" s="48"/>
-      <c r="AD7" s="49"/>
+      <c r="S7" s="140"/>
+      <c r="T7" s="141"/>
+      <c r="U7" s="141"/>
+      <c r="V7" s="142"/>
+      <c r="W7" s="134"/>
+      <c r="X7" s="135"/>
+      <c r="Y7" s="135"/>
+      <c r="Z7" s="135"/>
+      <c r="AA7" s="135"/>
+      <c r="AB7" s="135"/>
+      <c r="AC7" s="135"/>
+      <c r="AD7" s="136"/>
     </row>
     <row r="8" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="58" t="s">
+      <c r="A8" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="59"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="37"/>
+      <c r="B8" s="98"/>
+      <c r="C8" s="98"/>
+      <c r="D8" s="98"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="96" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="67"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="68"/>
       <c r="K8" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="L8" s="35" t="s">
+      <c r="L8" s="96" t="s">
+        <v>36</v>
+      </c>
+      <c r="M8" s="67"/>
+      <c r="N8" s="67"/>
+      <c r="O8" s="67"/>
+      <c r="P8" s="67"/>
+      <c r="Q8" s="68"/>
+      <c r="S8" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="T8" s="48"/>
+      <c r="U8" s="48"/>
+      <c r="V8" s="49"/>
+      <c r="W8" s="147" t="s">
         <v>39</v>
       </c>
-      <c r="M8" s="36"/>
-      <c r="N8" s="36"/>
-      <c r="O8" s="36"/>
-      <c r="P8" s="36"/>
-      <c r="Q8" s="37"/>
-      <c r="S8" s="63" t="s">
-        <v>8</v>
-      </c>
-      <c r="T8" s="64"/>
-      <c r="U8" s="64"/>
-      <c r="V8" s="65"/>
-      <c r="W8" s="66" t="s">
+      <c r="X8" s="148"/>
+      <c r="Y8" s="148"/>
+      <c r="Z8" s="148"/>
+      <c r="AA8" s="148"/>
+      <c r="AB8" s="148"/>
+      <c r="AC8" s="148"/>
+      <c r="AD8" s="149"/>
+    </row>
+    <row r="9" spans="1:30" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="96" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="67"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="67"/>
+      <c r="K9" s="67"/>
+      <c r="L9" s="67"/>
+      <c r="M9" s="67"/>
+      <c r="N9" s="67"/>
+      <c r="O9" s="67"/>
+      <c r="P9" s="67"/>
+      <c r="Q9" s="68"/>
+      <c r="S9" s="143" t="s">
+        <v>23</v>
+      </c>
+      <c r="T9" s="143"/>
+      <c r="U9" s="143"/>
+      <c r="V9" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="X8" s="67"/>
-      <c r="Y8" s="67"/>
-      <c r="Z8" s="67"/>
-      <c r="AA8" s="67"/>
-      <c r="AB8" s="67"/>
-      <c r="AC8" s="67"/>
-      <c r="AD8" s="68"/>
-    </row>
-    <row r="9" spans="1:30" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="63" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="64"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="36"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36"/>
-      <c r="O9" s="36"/>
-      <c r="P9" s="36"/>
-      <c r="Q9" s="37"/>
-      <c r="S9" s="56" t="s">
-        <v>23</v>
-      </c>
-      <c r="T9" s="56"/>
-      <c r="U9" s="56"/>
-      <c r="V9" s="133" t="s">
-        <v>45</v>
-      </c>
-      <c r="W9" s="134"/>
-      <c r="X9" s="134"/>
-      <c r="Y9" s="134"/>
-      <c r="Z9" s="134"/>
-      <c r="AA9" s="134"/>
-      <c r="AB9" s="134"/>
-      <c r="AC9" s="134"/>
-      <c r="AD9" s="135"/>
+      <c r="W9" s="33"/>
+      <c r="X9" s="33"/>
+      <c r="Y9" s="33"/>
+      <c r="Z9" s="33"/>
+      <c r="AA9" s="33"/>
+      <c r="AB9" s="33"/>
+      <c r="AC9" s="33"/>
+      <c r="AD9" s="34"/>
     </row>
     <row r="10" spans="1:30" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="Q10" s="3"/>
-      <c r="S10" s="57"/>
-      <c r="T10" s="57"/>
-      <c r="U10" s="57"/>
-      <c r="V10" s="136"/>
-      <c r="W10" s="137"/>
-      <c r="X10" s="137"/>
-      <c r="Y10" s="137"/>
-      <c r="Z10" s="137"/>
-      <c r="AA10" s="137"/>
-      <c r="AB10" s="137"/>
-      <c r="AC10" s="137"/>
-      <c r="AD10" s="138"/>
+      <c r="S10" s="144"/>
+      <c r="T10" s="144"/>
+      <c r="U10" s="144"/>
+      <c r="V10" s="35"/>
+      <c r="W10" s="36"/>
+      <c r="X10" s="36"/>
+      <c r="Y10" s="36"/>
+      <c r="Z10" s="36"/>
+      <c r="AA10" s="36"/>
+      <c r="AB10" s="36"/>
+      <c r="AC10" s="36"/>
+      <c r="AD10" s="37"/>
     </row>
     <row r="11" spans="1:30" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="63" t="s">
+      <c r="A11" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="64"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="36"/>
-      <c r="O11" s="36"/>
-      <c r="P11" s="36"/>
-      <c r="Q11" s="37"/>
-      <c r="S11" s="29" t="s">
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="96" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="67"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="67"/>
+      <c r="K11" s="67"/>
+      <c r="L11" s="67"/>
+      <c r="M11" s="67"/>
+      <c r="N11" s="67"/>
+      <c r="O11" s="67"/>
+      <c r="P11" s="67"/>
+      <c r="Q11" s="68"/>
+      <c r="S11" s="124" t="s">
         <v>5</v>
       </c>
-      <c r="T11" s="29"/>
-      <c r="U11" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="V11" s="42"/>
-      <c r="W11" s="42"/>
-      <c r="X11" s="43"/>
+      <c r="T11" s="124"/>
+      <c r="U11" s="128" t="s">
+        <v>36</v>
+      </c>
+      <c r="V11" s="129"/>
+      <c r="W11" s="129"/>
+      <c r="X11" s="130"/>
       <c r="Y11" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="Z11" s="41" t="s">
+      <c r="Z11" s="128" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA11" s="129"/>
+      <c r="AB11" s="129"/>
+      <c r="AC11" s="129"/>
+      <c r="AD11" s="130"/>
+    </row>
+    <row r="12" spans="1:30" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="100" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="101"/>
+      <c r="C12" s="102"/>
+      <c r="D12" s="96" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="67"/>
+      <c r="L12" s="67"/>
+      <c r="M12" s="67"/>
+      <c r="N12" s="67"/>
+      <c r="O12" s="67"/>
+      <c r="P12" s="67"/>
+      <c r="Q12" s="68"/>
+      <c r="S12" s="125" t="s">
+        <v>27</v>
+      </c>
+      <c r="T12" s="126"/>
+      <c r="U12" s="126"/>
+      <c r="V12" s="126"/>
+      <c r="W12" s="126"/>
+      <c r="X12" s="126"/>
+      <c r="Y12" s="126"/>
+      <c r="Z12" s="126"/>
+      <c r="AA12" s="126"/>
+      <c r="AB12" s="126"/>
+      <c r="AC12" s="126"/>
+      <c r="AD12" s="127"/>
+    </row>
+    <row r="13" spans="1:30" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="93" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="94"/>
+      <c r="C13" s="95"/>
+      <c r="D13" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="AA11" s="42"/>
-      <c r="AB11" s="42"/>
-      <c r="AC11" s="42"/>
-      <c r="AD11" s="43"/>
-    </row>
-    <row r="12" spans="1:30" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="39"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="36"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="36"/>
-      <c r="O12" s="36"/>
-      <c r="P12" s="36"/>
-      <c r="Q12" s="37"/>
-      <c r="S12" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="T12" s="31"/>
-      <c r="U12" s="31"/>
-      <c r="V12" s="31"/>
-      <c r="W12" s="31"/>
-      <c r="X12" s="31"/>
-      <c r="Y12" s="31"/>
-      <c r="Z12" s="31"/>
-      <c r="AA12" s="31"/>
-      <c r="AB12" s="31"/>
-      <c r="AC12" s="31"/>
-      <c r="AD12" s="32"/>
-    </row>
-    <row r="13" spans="1:30" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="91" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="92"/>
-      <c r="C13" s="93"/>
-      <c r="D13" s="104" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="105"/>
-      <c r="F13" s="105"/>
-      <c r="G13" s="105"/>
-      <c r="H13" s="106"/>
-      <c r="I13" s="103" t="s">
+      <c r="E13" s="75"/>
+      <c r="F13" s="75"/>
+      <c r="G13" s="75"/>
+      <c r="H13" s="76"/>
+      <c r="I13" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="J13" s="103"/>
-      <c r="K13" s="103"/>
-      <c r="L13" s="104" t="s">
-        <v>44</v>
-      </c>
-      <c r="M13" s="105"/>
-      <c r="N13" s="105"/>
-      <c r="O13" s="105"/>
-      <c r="P13" s="105"/>
-      <c r="Q13" s="106"/>
-      <c r="S13" s="144" t="s">
+      <c r="J13" s="73"/>
+      <c r="K13" s="73"/>
+      <c r="L13" s="74" t="s">
+        <v>41</v>
+      </c>
+      <c r="M13" s="75"/>
+      <c r="N13" s="75"/>
+      <c r="O13" s="75"/>
+      <c r="P13" s="75"/>
+      <c r="Q13" s="76"/>
+      <c r="S13" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="T13" s="145"/>
-      <c r="U13" s="145"/>
-      <c r="V13" s="145"/>
-      <c r="W13" s="145"/>
-      <c r="X13" s="145"/>
-      <c r="Y13" s="145"/>
-      <c r="Z13" s="145"/>
-      <c r="AA13" s="145"/>
-      <c r="AB13" s="145"/>
-      <c r="AC13" s="145"/>
-      <c r="AD13" s="146"/>
+      <c r="T13" s="44"/>
+      <c r="U13" s="44"/>
+      <c r="V13" s="44"/>
+      <c r="W13" s="44"/>
+      <c r="X13" s="44"/>
+      <c r="Y13" s="44"/>
+      <c r="Z13" s="44"/>
+      <c r="AA13" s="44"/>
+      <c r="AB13" s="44"/>
+      <c r="AC13" s="44"/>
+      <c r="AD13" s="45"/>
     </row>
     <row r="14" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="107" t="s">
+      <c r="A14" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="108"/>
-      <c r="C14" s="108"/>
-      <c r="D14" s="108"/>
-      <c r="E14" s="108"/>
-      <c r="F14" s="108"/>
-      <c r="G14" s="108"/>
-      <c r="H14" s="108"/>
-      <c r="I14" s="108"/>
-      <c r="J14" s="108"/>
-      <c r="K14" s="108"/>
-      <c r="L14" s="108"/>
-      <c r="M14" s="108"/>
-      <c r="N14" s="108"/>
-      <c r="O14" s="108"/>
-      <c r="P14" s="108"/>
-      <c r="Q14" s="109"/>
-      <c r="S14" s="144"/>
-      <c r="T14" s="145"/>
-      <c r="U14" s="145"/>
-      <c r="V14" s="145"/>
-      <c r="W14" s="145"/>
-      <c r="X14" s="145"/>
-      <c r="Y14" s="145"/>
-      <c r="Z14" s="145"/>
-      <c r="AA14" s="145"/>
-      <c r="AB14" s="145"/>
-      <c r="AC14" s="145"/>
-      <c r="AD14" s="146"/>
+      <c r="B14" s="78"/>
+      <c r="C14" s="78"/>
+      <c r="D14" s="78"/>
+      <c r="E14" s="78"/>
+      <c r="F14" s="78"/>
+      <c r="G14" s="78"/>
+      <c r="H14" s="78"/>
+      <c r="I14" s="78"/>
+      <c r="J14" s="78"/>
+      <c r="K14" s="78"/>
+      <c r="L14" s="78"/>
+      <c r="M14" s="78"/>
+      <c r="N14" s="78"/>
+      <c r="O14" s="78"/>
+      <c r="P14" s="78"/>
+      <c r="Q14" s="79"/>
+      <c r="S14" s="43"/>
+      <c r="T14" s="44"/>
+      <c r="U14" s="44"/>
+      <c r="V14" s="44"/>
+      <c r="W14" s="44"/>
+      <c r="X14" s="44"/>
+      <c r="Y14" s="44"/>
+      <c r="Z14" s="44"/>
+      <c r="AA14" s="44"/>
+      <c r="AB14" s="44"/>
+      <c r="AC14" s="44"/>
+      <c r="AD14" s="45"/>
     </row>
     <row r="15" spans="1:30" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="110"/>
-      <c r="B15" s="111"/>
-      <c r="C15" s="111"/>
-      <c r="D15" s="111"/>
-      <c r="E15" s="111"/>
-      <c r="F15" s="111"/>
-      <c r="G15" s="111"/>
-      <c r="H15" s="111"/>
-      <c r="I15" s="111"/>
-      <c r="J15" s="111"/>
-      <c r="K15" s="111"/>
-      <c r="L15" s="111"/>
-      <c r="M15" s="111"/>
-      <c r="N15" s="111"/>
-      <c r="O15" s="111"/>
-      <c r="P15" s="111"/>
-      <c r="Q15" s="112"/>
-      <c r="S15" s="144"/>
-      <c r="T15" s="145"/>
-      <c r="U15" s="145"/>
-      <c r="V15" s="145"/>
-      <c r="W15" s="145"/>
-      <c r="X15" s="145"/>
-      <c r="Y15" s="145"/>
-      <c r="Z15" s="145"/>
-      <c r="AA15" s="145"/>
-      <c r="AB15" s="145"/>
-      <c r="AC15" s="145"/>
-      <c r="AD15" s="146"/>
+      <c r="A15" s="80"/>
+      <c r="B15" s="81"/>
+      <c r="C15" s="81"/>
+      <c r="D15" s="81"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="81"/>
+      <c r="G15" s="81"/>
+      <c r="H15" s="81"/>
+      <c r="I15" s="81"/>
+      <c r="J15" s="81"/>
+      <c r="K15" s="81"/>
+      <c r="L15" s="81"/>
+      <c r="M15" s="81"/>
+      <c r="N15" s="81"/>
+      <c r="O15" s="81"/>
+      <c r="P15" s="81"/>
+      <c r="Q15" s="82"/>
+      <c r="S15" s="43"/>
+      <c r="T15" s="44"/>
+      <c r="U15" s="44"/>
+      <c r="V15" s="44"/>
+      <c r="W15" s="44"/>
+      <c r="X15" s="44"/>
+      <c r="Y15" s="44"/>
+      <c r="Z15" s="44"/>
+      <c r="AA15" s="44"/>
+      <c r="AB15" s="44"/>
+      <c r="AC15" s="44"/>
+      <c r="AD15" s="45"/>
     </row>
     <row r="16" spans="1:30" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="125" t="s">
+      <c r="A16" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="126"/>
-      <c r="C16" s="126"/>
-      <c r="D16" s="126"/>
-      <c r="E16" s="126"/>
-      <c r="F16" s="126"/>
-      <c r="G16" s="126"/>
-      <c r="H16" s="126"/>
-      <c r="I16" s="126"/>
-      <c r="J16" s="127"/>
-      <c r="K16" s="128" t="s">
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="84"/>
+      <c r="K16" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="L16" s="129"/>
-      <c r="M16" s="130"/>
-      <c r="N16" s="131" t="s">
+      <c r="L16" s="86"/>
+      <c r="M16" s="87"/>
+      <c r="N16" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="O16" s="126"/>
-      <c r="P16" s="126"/>
-      <c r="Q16" s="132"/>
-      <c r="S16" s="144"/>
-      <c r="T16" s="145"/>
-      <c r="U16" s="145"/>
-      <c r="V16" s="145"/>
-      <c r="W16" s="145"/>
-      <c r="X16" s="145"/>
-      <c r="Y16" s="145"/>
-      <c r="Z16" s="145"/>
-      <c r="AA16" s="145"/>
-      <c r="AB16" s="145"/>
-      <c r="AC16" s="145"/>
-      <c r="AD16" s="146"/>
+      <c r="O16" s="30"/>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="31"/>
+      <c r="S16" s="43"/>
+      <c r="T16" s="44"/>
+      <c r="U16" s="44"/>
+      <c r="V16" s="44"/>
+      <c r="W16" s="44"/>
+      <c r="X16" s="44"/>
+      <c r="Y16" s="44"/>
+      <c r="Z16" s="44"/>
+      <c r="AA16" s="44"/>
+      <c r="AB16" s="44"/>
+      <c r="AC16" s="44"/>
+      <c r="AD16" s="45"/>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A17" s="113"/>
-      <c r="B17" s="113"/>
-      <c r="C17" s="113"/>
-      <c r="D17" s="113"/>
-      <c r="E17" s="113"/>
-      <c r="F17" s="113"/>
-      <c r="G17" s="113"/>
-      <c r="H17" s="113"/>
-      <c r="I17" s="113"/>
-      <c r="J17" s="113"/>
-      <c r="K17" s="113"/>
-      <c r="L17" s="113"/>
-      <c r="M17" s="113"/>
-      <c r="N17" s="113"/>
-      <c r="O17" s="113"/>
-      <c r="P17" s="113"/>
-      <c r="Q17" s="113"/>
-      <c r="S17" s="144"/>
-      <c r="T17" s="145"/>
-      <c r="U17" s="145"/>
-      <c r="V17" s="145"/>
-      <c r="W17" s="145"/>
-      <c r="X17" s="145"/>
-      <c r="Y17" s="145"/>
-      <c r="Z17" s="145"/>
-      <c r="AA17" s="145"/>
-      <c r="AB17" s="145"/>
-      <c r="AC17" s="145"/>
-      <c r="AD17" s="146"/>
+      <c r="A17" s="53"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="53"/>
+      <c r="M17" s="53"/>
+      <c r="N17" s="53"/>
+      <c r="O17" s="53"/>
+      <c r="P17" s="53"/>
+      <c r="Q17" s="53"/>
+      <c r="S17" s="43"/>
+      <c r="T17" s="44"/>
+      <c r="U17" s="44"/>
+      <c r="V17" s="44"/>
+      <c r="W17" s="44"/>
+      <c r="X17" s="44"/>
+      <c r="Y17" s="44"/>
+      <c r="Z17" s="44"/>
+      <c r="AA17" s="44"/>
+      <c r="AB17" s="44"/>
+      <c r="AC17" s="44"/>
+      <c r="AD17" s="45"/>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A18" s="97"/>
-      <c r="B18" s="97"/>
-      <c r="C18" s="97"/>
-      <c r="D18" s="97"/>
-      <c r="E18" s="97"/>
-      <c r="F18" s="97"/>
-      <c r="G18" s="97"/>
-      <c r="H18" s="97"/>
-      <c r="I18" s="97"/>
-      <c r="J18" s="97"/>
-      <c r="K18" s="97"/>
-      <c r="L18" s="97"/>
-      <c r="M18" s="97"/>
-      <c r="N18" s="97"/>
-      <c r="O18" s="97"/>
-      <c r="P18" s="97"/>
-      <c r="Q18" s="97"/>
-      <c r="S18" s="144"/>
-      <c r="T18" s="145"/>
-      <c r="U18" s="145"/>
-      <c r="V18" s="145"/>
-      <c r="W18" s="145"/>
-      <c r="X18" s="145"/>
-      <c r="Y18" s="145"/>
-      <c r="Z18" s="145"/>
-      <c r="AA18" s="145"/>
-      <c r="AB18" s="145"/>
-      <c r="AC18" s="145"/>
-      <c r="AD18" s="146"/>
+      <c r="A18" s="46"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="46"/>
+      <c r="M18" s="46"/>
+      <c r="N18" s="46"/>
+      <c r="O18" s="46"/>
+      <c r="P18" s="46"/>
+      <c r="Q18" s="46"/>
+      <c r="S18" s="43"/>
+      <c r="T18" s="44"/>
+      <c r="U18" s="44"/>
+      <c r="V18" s="44"/>
+      <c r="W18" s="44"/>
+      <c r="X18" s="44"/>
+      <c r="Y18" s="44"/>
+      <c r="Z18" s="44"/>
+      <c r="AA18" s="44"/>
+      <c r="AB18" s="44"/>
+      <c r="AC18" s="44"/>
+      <c r="AD18" s="45"/>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A19" s="97"/>
-      <c r="B19" s="97"/>
-      <c r="C19" s="97"/>
-      <c r="D19" s="97"/>
-      <c r="E19" s="97"/>
-      <c r="F19" s="97"/>
-      <c r="G19" s="97"/>
-      <c r="H19" s="97"/>
-      <c r="I19" s="97"/>
-      <c r="J19" s="97"/>
-      <c r="K19" s="97"/>
-      <c r="L19" s="97"/>
-      <c r="M19" s="97"/>
-      <c r="N19" s="97"/>
-      <c r="O19" s="97"/>
-      <c r="P19" s="97"/>
-      <c r="Q19" s="97"/>
-      <c r="S19" s="144"/>
-      <c r="T19" s="145"/>
-      <c r="U19" s="145"/>
-      <c r="V19" s="145"/>
-      <c r="W19" s="145"/>
-      <c r="X19" s="145"/>
-      <c r="Y19" s="145"/>
-      <c r="Z19" s="145"/>
-      <c r="AA19" s="145"/>
-      <c r="AB19" s="145"/>
-      <c r="AC19" s="145"/>
-      <c r="AD19" s="146"/>
+      <c r="A19" s="46"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="46"/>
+      <c r="M19" s="46"/>
+      <c r="N19" s="46"/>
+      <c r="O19" s="46"/>
+      <c r="P19" s="46"/>
+      <c r="Q19" s="46"/>
+      <c r="S19" s="43"/>
+      <c r="T19" s="44"/>
+      <c r="U19" s="44"/>
+      <c r="V19" s="44"/>
+      <c r="W19" s="44"/>
+      <c r="X19" s="44"/>
+      <c r="Y19" s="44"/>
+      <c r="Z19" s="44"/>
+      <c r="AA19" s="44"/>
+      <c r="AB19" s="44"/>
+      <c r="AC19" s="44"/>
+      <c r="AD19" s="45"/>
     </row>
     <row r="20" spans="1:30" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="Q20" s="3"/>
-      <c r="S20" s="144"/>
-      <c r="T20" s="145"/>
-      <c r="U20" s="145"/>
-      <c r="V20" s="145"/>
-      <c r="W20" s="145"/>
-      <c r="X20" s="145"/>
-      <c r="Y20" s="145"/>
-      <c r="Z20" s="145"/>
-      <c r="AA20" s="145"/>
-      <c r="AB20" s="145"/>
-      <c r="AC20" s="145"/>
-      <c r="AD20" s="146"/>
+      <c r="S20" s="43"/>
+      <c r="T20" s="44"/>
+      <c r="U20" s="44"/>
+      <c r="V20" s="44"/>
+      <c r="W20" s="44"/>
+      <c r="X20" s="44"/>
+      <c r="Y20" s="44"/>
+      <c r="Z20" s="44"/>
+      <c r="AA20" s="44"/>
+      <c r="AB20" s="44"/>
+      <c r="AC20" s="44"/>
+      <c r="AD20" s="45"/>
     </row>
     <row r="21" spans="1:30" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="147" t="s">
+      <c r="A21" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="147"/>
-      <c r="C21" s="147"/>
-      <c r="D21" s="147"/>
-      <c r="E21" s="147"/>
-      <c r="F21" s="147"/>
-      <c r="G21" s="147"/>
-      <c r="H21" s="147"/>
-      <c r="I21" s="147"/>
-      <c r="J21" s="148"/>
-      <c r="K21" s="147" t="s">
+      <c r="B21" s="50"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="51"/>
+      <c r="K21" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="L21" s="147"/>
-      <c r="M21" s="147"/>
-      <c r="N21" s="149" t="s">
+      <c r="L21" s="50"/>
+      <c r="M21" s="50"/>
+      <c r="N21" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="O21" s="147"/>
-      <c r="P21" s="147"/>
-      <c r="Q21" s="147"/>
-      <c r="S21" s="144"/>
-      <c r="T21" s="145"/>
-      <c r="U21" s="145"/>
-      <c r="V21" s="145"/>
-      <c r="W21" s="145"/>
-      <c r="X21" s="145"/>
-      <c r="Y21" s="145"/>
-      <c r="Z21" s="145"/>
-      <c r="AA21" s="145"/>
-      <c r="AB21" s="145"/>
-      <c r="AC21" s="145"/>
-      <c r="AD21" s="146"/>
+      <c r="O21" s="50"/>
+      <c r="P21" s="50"/>
+      <c r="Q21" s="50"/>
+      <c r="S21" s="43"/>
+      <c r="T21" s="44"/>
+      <c r="U21" s="44"/>
+      <c r="V21" s="44"/>
+      <c r="W21" s="44"/>
+      <c r="X21" s="44"/>
+      <c r="Y21" s="44"/>
+      <c r="Z21" s="44"/>
+      <c r="AA21" s="44"/>
+      <c r="AB21" s="44"/>
+      <c r="AC21" s="44"/>
+      <c r="AD21" s="45"/>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A22" s="113"/>
-      <c r="B22" s="113"/>
-      <c r="C22" s="113"/>
-      <c r="D22" s="113"/>
-      <c r="E22" s="113"/>
-      <c r="F22" s="113"/>
-      <c r="G22" s="113"/>
-      <c r="H22" s="113"/>
-      <c r="I22" s="113"/>
-      <c r="J22" s="113"/>
-      <c r="K22" s="113"/>
-      <c r="L22" s="113"/>
-      <c r="M22" s="113"/>
-      <c r="N22" s="113"/>
-      <c r="O22" s="113"/>
-      <c r="P22" s="113"/>
-      <c r="Q22" s="113"/>
-      <c r="S22" s="144"/>
-      <c r="T22" s="145"/>
-      <c r="U22" s="145"/>
-      <c r="V22" s="145"/>
-      <c r="W22" s="145"/>
-      <c r="X22" s="145"/>
-      <c r="Y22" s="145"/>
-      <c r="Z22" s="145"/>
-      <c r="AA22" s="145"/>
-      <c r="AB22" s="145"/>
-      <c r="AC22" s="145"/>
-      <c r="AD22" s="146"/>
+      <c r="A22" s="53"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="53"/>
+      <c r="L22" s="53"/>
+      <c r="M22" s="53"/>
+      <c r="N22" s="53"/>
+      <c r="O22" s="53"/>
+      <c r="P22" s="53"/>
+      <c r="Q22" s="53"/>
+      <c r="S22" s="43"/>
+      <c r="T22" s="44"/>
+      <c r="U22" s="44"/>
+      <c r="V22" s="44"/>
+      <c r="W22" s="44"/>
+      <c r="X22" s="44"/>
+      <c r="Y22" s="44"/>
+      <c r="Z22" s="44"/>
+      <c r="AA22" s="44"/>
+      <c r="AB22" s="44"/>
+      <c r="AC22" s="44"/>
+      <c r="AD22" s="45"/>
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A23" s="97"/>
-      <c r="B23" s="97"/>
-      <c r="C23" s="97"/>
-      <c r="D23" s="97"/>
-      <c r="E23" s="97"/>
-      <c r="F23" s="97"/>
-      <c r="G23" s="97"/>
-      <c r="H23" s="97"/>
-      <c r="I23" s="97"/>
-      <c r="J23" s="97"/>
-      <c r="K23" s="97"/>
-      <c r="L23" s="97"/>
-      <c r="M23" s="97"/>
-      <c r="N23" s="97"/>
-      <c r="O23" s="97"/>
-      <c r="P23" s="97"/>
-      <c r="Q23" s="97"/>
-      <c r="S23" s="144"/>
-      <c r="T23" s="145"/>
-      <c r="U23" s="145"/>
-      <c r="V23" s="145"/>
-      <c r="W23" s="145"/>
-      <c r="X23" s="145"/>
-      <c r="Y23" s="145"/>
-      <c r="Z23" s="145"/>
-      <c r="AA23" s="145"/>
-      <c r="AB23" s="145"/>
-      <c r="AC23" s="145"/>
-      <c r="AD23" s="146"/>
+      <c r="A23" s="46"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="46"/>
+      <c r="L23" s="46"/>
+      <c r="M23" s="46"/>
+      <c r="N23" s="46"/>
+      <c r="O23" s="46"/>
+      <c r="P23" s="46"/>
+      <c r="Q23" s="46"/>
+      <c r="S23" s="43"/>
+      <c r="T23" s="44"/>
+      <c r="U23" s="44"/>
+      <c r="V23" s="44"/>
+      <c r="W23" s="44"/>
+      <c r="X23" s="44"/>
+      <c r="Y23" s="44"/>
+      <c r="Z23" s="44"/>
+      <c r="AA23" s="44"/>
+      <c r="AB23" s="44"/>
+      <c r="AC23" s="44"/>
+      <c r="AD23" s="45"/>
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A24" s="97"/>
-      <c r="B24" s="97"/>
-      <c r="C24" s="97"/>
-      <c r="D24" s="97"/>
-      <c r="E24" s="97"/>
-      <c r="F24" s="97"/>
-      <c r="G24" s="97"/>
-      <c r="H24" s="97"/>
-      <c r="I24" s="97"/>
-      <c r="J24" s="97"/>
-      <c r="K24" s="97"/>
-      <c r="L24" s="97"/>
-      <c r="M24" s="97"/>
-      <c r="N24" s="97"/>
-      <c r="O24" s="97"/>
-      <c r="P24" s="97"/>
-      <c r="Q24" s="97"/>
-      <c r="S24" s="144"/>
-      <c r="T24" s="145"/>
-      <c r="U24" s="145"/>
-      <c r="V24" s="145"/>
-      <c r="W24" s="145"/>
-      <c r="X24" s="145"/>
-      <c r="Y24" s="145"/>
-      <c r="Z24" s="145"/>
-      <c r="AA24" s="145"/>
-      <c r="AB24" s="145"/>
-      <c r="AC24" s="145"/>
-      <c r="AD24" s="146"/>
+      <c r="A24" s="46"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="46"/>
+      <c r="K24" s="46"/>
+      <c r="L24" s="46"/>
+      <c r="M24" s="46"/>
+      <c r="N24" s="46"/>
+      <c r="O24" s="46"/>
+      <c r="P24" s="46"/>
+      <c r="Q24" s="46"/>
+      <c r="S24" s="43"/>
+      <c r="T24" s="44"/>
+      <c r="U24" s="44"/>
+      <c r="V24" s="44"/>
+      <c r="W24" s="44"/>
+      <c r="X24" s="44"/>
+      <c r="Y24" s="44"/>
+      <c r="Z24" s="44"/>
+      <c r="AA24" s="44"/>
+      <c r="AB24" s="44"/>
+      <c r="AC24" s="44"/>
+      <c r="AD24" s="45"/>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A25" s="97"/>
-      <c r="B25" s="97"/>
-      <c r="C25" s="97"/>
-      <c r="D25" s="97"/>
-      <c r="E25" s="97"/>
-      <c r="F25" s="97"/>
-      <c r="G25" s="97"/>
-      <c r="H25" s="97"/>
-      <c r="I25" s="97"/>
-      <c r="J25" s="97"/>
-      <c r="K25" s="97"/>
-      <c r="L25" s="97"/>
-      <c r="M25" s="97"/>
-      <c r="N25" s="97"/>
-      <c r="O25" s="97"/>
-      <c r="P25" s="97"/>
-      <c r="Q25" s="97"/>
-      <c r="S25" s="144"/>
-      <c r="T25" s="145"/>
-      <c r="U25" s="145"/>
-      <c r="V25" s="145"/>
-      <c r="W25" s="145"/>
-      <c r="X25" s="145"/>
-      <c r="Y25" s="145"/>
-      <c r="Z25" s="145"/>
-      <c r="AA25" s="145"/>
-      <c r="AB25" s="145"/>
-      <c r="AC25" s="145"/>
-      <c r="AD25" s="146"/>
+      <c r="A25" s="46"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="46"/>
+      <c r="K25" s="46"/>
+      <c r="L25" s="46"/>
+      <c r="M25" s="46"/>
+      <c r="N25" s="46"/>
+      <c r="O25" s="46"/>
+      <c r="P25" s="46"/>
+      <c r="Q25" s="46"/>
+      <c r="S25" s="43"/>
+      <c r="T25" s="44"/>
+      <c r="U25" s="44"/>
+      <c r="V25" s="44"/>
+      <c r="W25" s="44"/>
+      <c r="X25" s="44"/>
+      <c r="Y25" s="44"/>
+      <c r="Z25" s="44"/>
+      <c r="AA25" s="44"/>
+      <c r="AB25" s="44"/>
+      <c r="AC25" s="44"/>
+      <c r="AD25" s="45"/>
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A26" s="97"/>
-      <c r="B26" s="97"/>
-      <c r="C26" s="97"/>
-      <c r="D26" s="97"/>
-      <c r="E26" s="97"/>
-      <c r="F26" s="97"/>
-      <c r="G26" s="97"/>
-      <c r="H26" s="97"/>
-      <c r="I26" s="97"/>
-      <c r="J26" s="97"/>
-      <c r="K26" s="97"/>
-      <c r="L26" s="97"/>
-      <c r="M26" s="97"/>
-      <c r="N26" s="97"/>
-      <c r="O26" s="97"/>
-      <c r="P26" s="97"/>
-      <c r="Q26" s="97"/>
-      <c r="S26" s="144"/>
-      <c r="T26" s="145"/>
-      <c r="U26" s="145"/>
-      <c r="V26" s="145"/>
-      <c r="W26" s="145"/>
-      <c r="X26" s="145"/>
-      <c r="Y26" s="145"/>
-      <c r="Z26" s="145"/>
-      <c r="AA26" s="145"/>
-      <c r="AB26" s="145"/>
-      <c r="AC26" s="145"/>
-      <c r="AD26" s="146"/>
+      <c r="A26" s="46"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="46"/>
+      <c r="J26" s="46"/>
+      <c r="K26" s="46"/>
+      <c r="L26" s="46"/>
+      <c r="M26" s="46"/>
+      <c r="N26" s="46"/>
+      <c r="O26" s="46"/>
+      <c r="P26" s="46"/>
+      <c r="Q26" s="46"/>
+      <c r="S26" s="43"/>
+      <c r="T26" s="44"/>
+      <c r="U26" s="44"/>
+      <c r="V26" s="44"/>
+      <c r="W26" s="44"/>
+      <c r="X26" s="44"/>
+      <c r="Y26" s="44"/>
+      <c r="Z26" s="44"/>
+      <c r="AA26" s="44"/>
+      <c r="AB26" s="44"/>
+      <c r="AC26" s="44"/>
+      <c r="AD26" s="45"/>
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A27" s="97"/>
-      <c r="B27" s="97"/>
-      <c r="C27" s="97"/>
-      <c r="D27" s="97"/>
-      <c r="E27" s="97"/>
-      <c r="F27" s="97"/>
-      <c r="G27" s="97"/>
-      <c r="H27" s="97"/>
-      <c r="I27" s="97"/>
-      <c r="J27" s="97"/>
-      <c r="K27" s="102" t="s">
+      <c r="A27" s="46"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="46"/>
+      <c r="K27" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="L27" s="102"/>
-      <c r="M27" s="102"/>
-      <c r="N27" s="97"/>
-      <c r="O27" s="97"/>
-      <c r="P27" s="97"/>
-      <c r="Q27" s="97"/>
-      <c r="S27" s="144"/>
-      <c r="T27" s="145"/>
-      <c r="U27" s="145"/>
-      <c r="V27" s="145"/>
-      <c r="W27" s="145"/>
-      <c r="X27" s="145"/>
-      <c r="Y27" s="145"/>
-      <c r="Z27" s="145"/>
-      <c r="AA27" s="145"/>
-      <c r="AB27" s="145"/>
-      <c r="AC27" s="145"/>
-      <c r="AD27" s="146"/>
+      <c r="L27" s="92"/>
+      <c r="M27" s="92"/>
+      <c r="N27" s="46"/>
+      <c r="O27" s="46"/>
+      <c r="P27" s="46"/>
+      <c r="Q27" s="46"/>
+      <c r="S27" s="43"/>
+      <c r="T27" s="44"/>
+      <c r="U27" s="44"/>
+      <c r="V27" s="44"/>
+      <c r="W27" s="44"/>
+      <c r="X27" s="44"/>
+      <c r="Y27" s="44"/>
+      <c r="Z27" s="44"/>
+      <c r="AA27" s="44"/>
+      <c r="AB27" s="44"/>
+      <c r="AC27" s="44"/>
+      <c r="AD27" s="45"/>
     </row>
     <row r="28" spans="1:30" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="98" t="s">
+      <c r="A28" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="99"/>
-      <c r="C28" s="99"/>
-      <c r="D28" s="99"/>
-      <c r="E28" s="99"/>
-      <c r="F28" s="99"/>
-      <c r="G28" s="99"/>
-      <c r="H28" s="99"/>
-      <c r="I28" s="99"/>
-      <c r="J28" s="99"/>
-      <c r="K28" s="99"/>
-      <c r="L28" s="99"/>
-      <c r="M28" s="99"/>
-      <c r="N28" s="99"/>
-      <c r="O28" s="99"/>
-      <c r="P28" s="99"/>
-      <c r="Q28" s="100"/>
-      <c r="S28" s="144"/>
-      <c r="T28" s="145"/>
-      <c r="U28" s="145"/>
-      <c r="V28" s="145"/>
-      <c r="W28" s="145"/>
-      <c r="X28" s="145"/>
-      <c r="Y28" s="145"/>
-      <c r="Z28" s="145"/>
-      <c r="AA28" s="145"/>
-      <c r="AB28" s="145"/>
-      <c r="AC28" s="145"/>
-      <c r="AD28" s="146"/>
+      <c r="B28" s="89"/>
+      <c r="C28" s="89"/>
+      <c r="D28" s="89"/>
+      <c r="E28" s="89"/>
+      <c r="F28" s="89"/>
+      <c r="G28" s="89"/>
+      <c r="H28" s="89"/>
+      <c r="I28" s="89"/>
+      <c r="J28" s="89"/>
+      <c r="K28" s="89"/>
+      <c r="L28" s="89"/>
+      <c r="M28" s="89"/>
+      <c r="N28" s="89"/>
+      <c r="O28" s="89"/>
+      <c r="P28" s="89"/>
+      <c r="Q28" s="90"/>
+      <c r="S28" s="43"/>
+      <c r="T28" s="44"/>
+      <c r="U28" s="44"/>
+      <c r="V28" s="44"/>
+      <c r="W28" s="44"/>
+      <c r="X28" s="44"/>
+      <c r="Y28" s="44"/>
+      <c r="Z28" s="44"/>
+      <c r="AA28" s="44"/>
+      <c r="AB28" s="44"/>
+      <c r="AC28" s="44"/>
+      <c r="AD28" s="45"/>
     </row>
     <row r="29" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="94" t="s">
+      <c r="A29" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="95"/>
-      <c r="C29" s="95"/>
-      <c r="D29" s="95"/>
-      <c r="E29" s="95"/>
-      <c r="F29" s="95"/>
-      <c r="G29" s="95"/>
+      <c r="B29" s="65"/>
+      <c r="C29" s="65"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="65"/>
+      <c r="F29" s="65"/>
+      <c r="G29" s="65"/>
       <c r="H29" s="19"/>
       <c r="I29" s="12"/>
-      <c r="J29" s="101" t="s">
+      <c r="J29" s="91" t="s">
         <v>18</v>
       </c>
-      <c r="K29" s="101"/>
+      <c r="K29" s="91"/>
       <c r="L29" s="8"/>
       <c r="M29" s="8"/>
       <c r="N29" s="8"/>
       <c r="O29" s="8"/>
       <c r="P29" s="8"/>
       <c r="Q29" s="5"/>
-      <c r="S29" s="142" t="s">
+      <c r="S29" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="T29" s="143"/>
-      <c r="U29" s="143"/>
-      <c r="V29" s="140" t="s">
+      <c r="T29" s="42"/>
+      <c r="U29" s="42"/>
+      <c r="V29" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="W29" s="140"/>
-      <c r="X29" s="140"/>
-      <c r="Y29" s="140"/>
-      <c r="Z29" s="140"/>
-      <c r="AA29" s="140"/>
-      <c r="AB29" s="140"/>
-      <c r="AC29" s="140"/>
-      <c r="AD29" s="141"/>
+      <c r="W29" s="39"/>
+      <c r="X29" s="39"/>
+      <c r="Y29" s="39"/>
+      <c r="Z29" s="39"/>
+      <c r="AA29" s="39"/>
+      <c r="AB29" s="39"/>
+      <c r="AC29" s="39"/>
+      <c r="AD29" s="40"/>
     </row>
     <row r="30" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
@@ -2732,18 +2724,18 @@
       <c r="O30" s="9"/>
       <c r="P30" s="9"/>
       <c r="Q30" s="3"/>
-      <c r="S30" s="142"/>
-      <c r="T30" s="143"/>
-      <c r="U30" s="143"/>
-      <c r="V30" s="140"/>
-      <c r="W30" s="140"/>
-      <c r="X30" s="140"/>
-      <c r="Y30" s="140"/>
-      <c r="Z30" s="140"/>
-      <c r="AA30" s="140"/>
-      <c r="AB30" s="140"/>
-      <c r="AC30" s="140"/>
-      <c r="AD30" s="141"/>
+      <c r="S30" s="41"/>
+      <c r="T30" s="42"/>
+      <c r="U30" s="42"/>
+      <c r="V30" s="39"/>
+      <c r="W30" s="39"/>
+      <c r="X30" s="39"/>
+      <c r="Y30" s="39"/>
+      <c r="Z30" s="39"/>
+      <c r="AA30" s="39"/>
+      <c r="AB30" s="39"/>
+      <c r="AC30" s="39"/>
+      <c r="AD30" s="40"/>
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
@@ -2757,12 +2749,12 @@
       <c r="G31" s="4"/>
       <c r="H31" s="20"/>
       <c r="I31" s="18"/>
-      <c r="J31" s="139" t="s">
+      <c r="J31" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="K31" s="139"/>
-      <c r="L31" s="139"/>
-      <c r="M31" s="139"/>
+      <c r="K31" s="38"/>
+      <c r="L31" s="38"/>
+      <c r="M31" s="38"/>
       <c r="N31" s="8"/>
       <c r="O31" s="8"/>
       <c r="P31" s="8"/>
@@ -2818,6 +2810,80 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="90">
+    <mergeCell ref="S9:U10"/>
+    <mergeCell ref="X5:Z5"/>
+    <mergeCell ref="AB5:AD5"/>
+    <mergeCell ref="S8:V8"/>
+    <mergeCell ref="W8:AD8"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AA4:AD4"/>
+    <mergeCell ref="S1:AB1"/>
+    <mergeCell ref="S2:AB2"/>
+    <mergeCell ref="S3:V3"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="Z3:AD3"/>
+    <mergeCell ref="V4:Y4"/>
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="S5:W5"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A3:N3"/>
+    <mergeCell ref="E11:Q11"/>
+    <mergeCell ref="D12:Q12"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="S12:AD12"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="K6:Q6"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="L8:Q8"/>
+    <mergeCell ref="F9:Q9"/>
+    <mergeCell ref="U11:X11"/>
+    <mergeCell ref="Z11:AD11"/>
+    <mergeCell ref="W6:AD7"/>
+    <mergeCell ref="S6:V7"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="F8:J8"/>
+    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="K25:M25"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="N25:Q25"/>
+    <mergeCell ref="A28:Q28"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="A29:G29"/>
+    <mergeCell ref="A26:J26"/>
+    <mergeCell ref="K26:M26"/>
+    <mergeCell ref="N26:Q26"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="K27:M27"/>
+    <mergeCell ref="N27:Q27"/>
+    <mergeCell ref="N23:Q23"/>
+    <mergeCell ref="K24:M24"/>
+    <mergeCell ref="N24:Q24"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="L13:Q13"/>
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="A14:Q15"/>
+    <mergeCell ref="K22:M22"/>
+    <mergeCell ref="N22:Q22"/>
+    <mergeCell ref="N18:Q18"/>
+    <mergeCell ref="A17:J17"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="N17:Q17"/>
+    <mergeCell ref="A16:J16"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="A1:N2"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="K5:Q5"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="I4:Q4"/>
     <mergeCell ref="N16:Q16"/>
     <mergeCell ref="V9:AD10"/>
     <mergeCell ref="J31:M31"/>
@@ -2834,80 +2900,6 @@
     <mergeCell ref="N21:Q21"/>
     <mergeCell ref="A22:J22"/>
     <mergeCell ref="A18:J18"/>
-    <mergeCell ref="A1:N2"/>
-    <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="K5:Q5"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="I4:Q4"/>
-    <mergeCell ref="N23:Q23"/>
-    <mergeCell ref="K24:M24"/>
-    <mergeCell ref="N24:Q24"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="L13:Q13"/>
-    <mergeCell ref="D13:H13"/>
-    <mergeCell ref="A14:Q15"/>
-    <mergeCell ref="K22:M22"/>
-    <mergeCell ref="N22:Q22"/>
-    <mergeCell ref="N18:Q18"/>
-    <mergeCell ref="A17:J17"/>
-    <mergeCell ref="K17:M17"/>
-    <mergeCell ref="N17:Q17"/>
-    <mergeCell ref="A16:J16"/>
-    <mergeCell ref="K16:M16"/>
-    <mergeCell ref="N25:Q25"/>
-    <mergeCell ref="A28:Q28"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="A29:G29"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="K26:M26"/>
-    <mergeCell ref="N26:Q26"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="K27:M27"/>
-    <mergeCell ref="N27:Q27"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="F8:J8"/>
-    <mergeCell ref="A25:J25"/>
-    <mergeCell ref="K25:M25"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="K18:M18"/>
-    <mergeCell ref="S5:W5"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A3:N3"/>
-    <mergeCell ref="E11:Q11"/>
-    <mergeCell ref="D12:Q12"/>
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AA4:AD4"/>
-    <mergeCell ref="S1:AB1"/>
-    <mergeCell ref="S2:AB2"/>
-    <mergeCell ref="S3:V3"/>
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="Z3:AD3"/>
-    <mergeCell ref="V4:Y4"/>
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="S12:AD12"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="K6:Q6"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="L8:Q8"/>
-    <mergeCell ref="F9:Q9"/>
-    <mergeCell ref="U11:X11"/>
-    <mergeCell ref="Z11:AD11"/>
-    <mergeCell ref="W6:AD7"/>
-    <mergeCell ref="S6:V7"/>
-    <mergeCell ref="S9:U10"/>
-    <mergeCell ref="X5:Z5"/>
-    <mergeCell ref="AB5:AD5"/>
-    <mergeCell ref="S8:V8"/>
-    <mergeCell ref="W8:AD8"/>
   </mergeCells>
   <pageMargins left="0.2361111111111111" right="0.2361111111111111" top="0" bottom="0.74791666666666667" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
